--- a/biology/Histoire de la zoologie et de la botanique/Beurl/Beurl..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Beurl/Beurl..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pehr Johan Beurling (né en 1800 à Stockholm - mort en 1866) est un botaniste suédois.
 </t>
@@ -511,10 +523,12 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est l'auteur, entre autres, d'un ouvrage réédité en 2012 et qui reste une référence sur les plantes vasculaires de Scandinavie[1].
-Son nom est associé à la description de près de 150 espèces de plantes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est l'auteur, entre autres, d'un ouvrage réédité en 2012 et qui reste une référence sur les plantes vasculaires de Scandinavie.
+Son nom est associé à la description de près de 150 espèces de plantes.
 </t>
         </is>
       </c>
@@ -545,9 +559,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Livres
-1854.  Primitiae florae Portobellensis, sive, Enumeratio plantarum vascularium quas juxta oppidum Portobello in Isthmo Panamensi Americae Centralis, mense Aprili anno 1826, legit doct. Joh. Eman. Billberg[3]
-1859.  Plantae vasculares seu cotyledoneae Scandanaviae, nempe Sveciae et Norvegiae, juxta regni vegetabilis systema naturale digestae. Ed. P.A. Norstedt, Holmiae[4].</t>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1854.  Primitiae florae Portobellensis, sive, Enumeratio plantarum vascularium quas juxta oppidum Portobello in Isthmo Panamensi Americae Centralis, mense Aprili anno 1826, legit doct. Joh. Eman. Billberg
+1859.  Plantae vasculares seu cotyledoneae Scandanaviae, nempe Sveciae et Norvegiae, juxta regni vegetabilis systema naturale digestae. Ed. P.A. Norstedt, Holmiae.</t>
         </is>
       </c>
     </row>
